--- a/error-import/PlatformErrorNumbers.xlsx
+++ b/error-import/PlatformErrorNumbers.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bottle\Documents\workspace\btresponse-plugin\error-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bottle\Documents\worker\project-documents\ErrorCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB4167-A79A-41FD-A226-E0227C1583E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4F865-D2A7-482D-AC03-8DEE81452888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03957857-10AF-454D-9FD0-16993AF788DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Operation" sheetId="1" r:id="rId1"/>
-    <sheet name="System" sheetId="2" r:id="rId2"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>Packet</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Class</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -58,18 +53,6 @@
     <t xml:space="preserve"># </t>
   </si>
   <si>
-    <t>基础包</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参数绑定错误或参数校验失败. </t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -88,9 +71,6 @@
     <t>Unprocessable</t>
   </si>
   <si>
-    <t>内容无法识别, 请确认格式</t>
-  </si>
-  <si>
     <t>服务器拒绝</t>
   </si>
   <si>
@@ -112,9 +92,6 @@
     <t>一般存在于限制访问频率的接口, 用户访问频率过高</t>
   </si>
   <si>
-    <t>一般是由于上报的数据格式有问题而触发</t>
-  </si>
-  <si>
     <t>请求被服务器拒绝, 原因未知</t>
   </si>
   <si>
@@ -187,12 +164,6 @@
     <t>表示请求的内容还未能使用(一般是指时间过早)的异常</t>
   </si>
   <si>
-    <t>通用异常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一般是需要身份认证的接口, 用户访问时未登录触发. </t>
-  </si>
-  <si>
     <t>Context</t>
   </si>
   <si>
@@ -253,21 +224,12 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>未知的错误</t>
-  </si>
-  <si>
     <t>BadGateway</t>
   </si>
   <si>
-    <t>服务器后端链路响应错误</t>
-  </si>
-  <si>
     <t>Unavailable</t>
   </si>
   <si>
-    <t>服务器未准备好</t>
-  </si>
-  <si>
     <t>Configuration</t>
   </si>
   <si>
@@ -302,13 +264,90 @@
   </si>
   <si>
     <t>请求上下文超出可容纳的范围的情况.</t>
+  </si>
+  <si>
+    <t>Insufficient</t>
+  </si>
+  <si>
+    <t>缺少可用资源</t>
+  </si>
+  <si>
+    <t>资源不足时触发</t>
+  </si>
+  <si>
+    <t>处理失败, 不能处理.</t>
+  </si>
+  <si>
+    <t>单纯程序处理失败. 大多是由于上报的数据格式有问题而触发</t>
+  </si>
+  <si>
+    <t>Duplicated</t>
+  </si>
+  <si>
+    <t>重复调用异常</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>签名异常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般是某些访问需要数据签名的情况 . </t>
+  </si>
+  <si>
+    <t>重复调用时触发, 和Uniqueness类似</t>
+  </si>
+  <si>
+    <r>
+      <t>一般是需要身份认证的接口, 用户访问时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">触发. </t>
+    </r>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>全局异常定义</t>
+  </si>
+  <si>
+    <t>服务不可用，过载保护</t>
+  </si>
+  <si>
+    <t>服务下线，暂时不可用</t>
+  </si>
+  <si>
+    <t>服务处理失败</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +379,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,11 +407,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,532 +741,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9267BA-77E1-40C2-AC98-3D04BE058649}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="69.28515625" customWidth="1"/>
-    <col min="5" max="5" width="100.140625" customWidth="1"/>
+    <col min="5" max="5" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3">
         <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
         <v>401</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>403</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4">
-        <v>403</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3">
         <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3">
         <v>406</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
         <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
         <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3">
         <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
         <v>415</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="4">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
         <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
         <v>418</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
         <v>422</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="4">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3">
         <v>423</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
         <v>425</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1">
-      <c r="A18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>429</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
         <v>460</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>461</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5">
+        <v>462</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <v>463</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="5">
+        <v>464</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="8">
+        <v>500</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8">
+        <v>502</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8">
+        <v>503</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4">
-        <v>429</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6">
-        <v>461</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6">
-        <v>462</v>
-      </c>
-      <c r="D21" s="7" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8">
+        <v>506</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="5">
+        <v>561</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="5">
+        <v>562</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1">
+      <c r="A30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
+        <v>563</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6">
-        <v>463</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="6">
-        <v>464</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="9">
-        <v>500</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="9">
-        <v>502</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="9">
-        <v>503</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9">
-        <v>506</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5901B303-EB15-43FF-A634-54CA60252A68}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="119" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>10004</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/error-import/PlatformErrorNumbers.xlsx
+++ b/error-import/PlatformErrorNumbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bottle\Documents\worker\project-documents\ErrorCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4F865-D2A7-482D-AC03-8DEE81452888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD605C8-E646-4E46-B17C-B96EADA0284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03957857-10AF-454D-9FD0-16993AF788DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Packet</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -342,12 +342,15 @@
   <si>
     <t>服务处理失败</t>
   </si>
+  <si>
+    <t>VERSION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +389,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -427,6 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -741,10 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9267BA-77E1-40C2-AC98-3D04BE058649}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,46 +769,37 @@
     <col min="5" max="5" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="3">
-        <v>400</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -803,16 +807,16 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -820,16 +824,16 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -837,16 +841,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -854,16 +858,16 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -871,16 +875,16 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -888,16 +892,16 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -905,16 +909,16 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -922,16 +926,16 @@
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -939,16 +943,16 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -956,16 +960,16 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -973,16 +977,16 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -990,16 +994,16 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1007,16 +1011,16 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1024,16 +1028,16 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1041,50 +1045,50 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3">
+        <v>425</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>429</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="6" customFormat="1">
-      <c r="A19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:5" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>460</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5">
-        <v>461</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1092,16 +1096,16 @@
         <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1109,16 +1113,16 @@
         <v>87</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1126,33 +1130,33 @@
         <v>87</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5">
+        <v>463</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>464</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="8">
-        <v>500</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1160,16 +1164,16 @@
         <v>88</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="8">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1177,16 +1181,16 @@
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1194,33 +1198,33 @@
         <v>88</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="8">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="5">
-        <v>561</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>77</v>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8">
+        <v>506</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1228,32 +1232,49 @@
         <v>88</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="5">
+        <v>561</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C30" s="5">
         <v>562</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="6" customFormat="1">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:5" s="6" customFormat="1">
+      <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <v>563</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>18</v>
       </c>
     </row>
